--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Wrestling.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Wrestling.xlsx
@@ -17,48 +17,48 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Most Valuable</t>
+  </si>
+  <si>
+    <t>Most Valuable 1st Year</t>
+  </si>
+  <si>
+    <t>Coaches' Award</t>
+  </si>
+  <si>
+    <t>image URL</t>
+  </si>
+  <si>
     <t>Outstanding Heavyweight</t>
   </si>
   <si>
-    <t>Most Valuable</t>
-  </si>
-  <si>
     <t>Oustanding Lightweight</t>
   </si>
   <si>
     <t>Most Improved</t>
   </si>
   <si>
-    <t>Coaches' Award</t>
-  </si>
-  <si>
     <t>Varsity Captain</t>
   </si>
   <si>
-    <t>Most Valuable 1st Year</t>
-  </si>
-  <si>
-    <t>image URL</t>
+    <t>DEFAULT IMAGE</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Jon Olsen</t>
+  </si>
+  <si>
+    <t>Tyler Ryan</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1StfsigsDwo-TzvbmOevuWjGObtoHcmQ3/view</t>
   </si>
   <si>
-    <t>DEFAULT IMAGE</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Jon Olsen</t>
-  </si>
-  <si>
-    <t>Tyler Ryan</t>
-  </si>
-  <si>
     <t>2010/2011</t>
   </si>
   <si>
@@ -83,49 +83,49 @@
     <t>Aurash Jalalian</t>
   </si>
   <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Nicolas Rios</t>
+  </si>
+  <si>
+    <t>Jason Tsai</t>
+  </si>
+  <si>
+    <t>Andrew Lamecki</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>Nico Sabato</t>
+  </si>
+  <si>
+    <t>Sean Yeung</t>
+  </si>
+  <si>
+    <t>Ryan Ho</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/18lWWqCADyuG6fdu_2y5d-ovj00glANUs/view</t>
   </si>
   <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>Nicolas Rios</t>
-  </si>
-  <si>
-    <t>Jason Tsai</t>
-  </si>
-  <si>
-    <t>Andrew Lamecki</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1olmIwr8rLevYSLEC-URjbmteFGxPQCBm/view</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>Nico Sabato</t>
-  </si>
-  <si>
-    <t>Sean Yeung</t>
-  </si>
-  <si>
-    <t>Ryan Ho</t>
   </si>
   <si>
     <t>1975/1977</t>
@@ -581,32 +581,32 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -648,204 +648,204 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
@@ -854,639 +854,639 @@
       <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="10"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1514,365 +1514,365 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="6">
         <v>0.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>0.0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="6">
         <v>0.0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
